--- a/CashFlow/TRU_cashflow.xlsx
+++ b/CashFlow/TRU_cashflow.xlsx
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>13600000.0</v>
+        <v>782000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>18700000.0</v>
+        <v>765000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>183300000.0</v>
+        <v>748000000.0</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
